--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H2">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>13.30378920122111</v>
+        <v>0.1818266511286667</v>
       </c>
       <c r="R2">
-        <v>119.73410281099</v>
+        <v>1.636439860158</v>
       </c>
       <c r="S2">
-        <v>0.0009813369485521699</v>
+        <v>1.888913996898609E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009813369485521697</v>
+        <v>1.888913996898609E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H3">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.04324349239177778</v>
+        <v>0.09852646435933334</v>
       </c>
       <c r="R3">
-        <v>0.3891914315260001</v>
+        <v>0.8867381792340001</v>
       </c>
       <c r="S3">
-        <v>3.189800757260275E-06</v>
+        <v>1.023546418734734E-05</v>
       </c>
       <c r="T3">
-        <v>3.189800757260275E-06</v>
+        <v>1.023546418734734E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H4">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>1.106467888751555</v>
+        <v>3.348872745794</v>
       </c>
       <c r="R4">
-        <v>9.958210998763999</v>
+        <v>30.139854712146</v>
       </c>
       <c r="S4">
-        <v>8.161718478813159E-05</v>
+        <v>0.0003478990876252933</v>
       </c>
       <c r="T4">
-        <v>8.161718478813159E-05</v>
+        <v>0.0003478990876252933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H5">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>29.92213679278822</v>
+        <v>66.76276546947267</v>
       </c>
       <c r="R5">
-        <v>269.299231135094</v>
+        <v>600.864889225254</v>
       </c>
       <c r="S5">
-        <v>0.002207168045905313</v>
+        <v>0.006935678646894672</v>
       </c>
       <c r="T5">
-        <v>0.002207168045905313</v>
+        <v>0.006935678646894671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>493.967652</v>
       </c>
       <c r="I6">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J6">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>3895.742024278073</v>
+        <v>23.36900587787867</v>
       </c>
       <c r="R6">
-        <v>35061.67821850266</v>
+        <v>210.321052900908</v>
       </c>
       <c r="S6">
-        <v>0.2873644142001734</v>
+        <v>0.002427699241135695</v>
       </c>
       <c r="T6">
-        <v>0.2873644142001733</v>
+        <v>0.002427699241135694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>493.967652</v>
       </c>
       <c r="I7">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J7">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>12.66297052960933</v>
@@ -883,10 +883,10 @@
         <v>113.966734766484</v>
       </c>
       <c r="S7">
-        <v>0.0009340677810794143</v>
+        <v>0.001315498147670749</v>
       </c>
       <c r="T7">
-        <v>0.0009340677810794142</v>
+        <v>0.001315498147670749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>493.967652</v>
       </c>
       <c r="I8">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J8">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>324.0064456469306</v>
+        <v>430.408998873044</v>
       </c>
       <c r="R8">
-        <v>2916.058010822375</v>
+        <v>3873.680989857396</v>
       </c>
       <c r="S8">
-        <v>0.02389991993057202</v>
+        <v>0.04471322423394908</v>
       </c>
       <c r="T8">
-        <v>0.02389991993057202</v>
+        <v>0.04471322423394908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>493.967652</v>
       </c>
       <c r="I9">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J9">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>8762.08454574451</v>
+        <v>8580.587328617223</v>
       </c>
       <c r="R9">
-        <v>78858.76091170059</v>
+        <v>77225.285957555</v>
       </c>
       <c r="S9">
-        <v>0.6463239292973622</v>
+        <v>0.891398010469136</v>
       </c>
       <c r="T9">
-        <v>0.646323929297362</v>
+        <v>0.8913980104691359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H10">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>154.3814340992739</v>
+        <v>1.307676923438111</v>
       </c>
       <c r="R10">
-        <v>1389.432906893465</v>
+        <v>11.769092310943</v>
       </c>
       <c r="S10">
-        <v>0.01138774849485616</v>
+        <v>0.0001358485804347593</v>
       </c>
       <c r="T10">
-        <v>0.01138774849485616</v>
+        <v>0.0001358485804347593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H11">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.5018113463712223</v>
+        <v>0.7085913038098889</v>
       </c>
       <c r="R11">
-        <v>4.516302117341</v>
+        <v>6.377321734289001</v>
       </c>
       <c r="S11">
-        <v>3.701547040083822E-05</v>
+        <v>7.361231280116294E-05</v>
       </c>
       <c r="T11">
-        <v>3.701547040083822E-05</v>
+        <v>7.361231280116294E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H12">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>12.83980803263044</v>
+        <v>24.08471795538233</v>
       </c>
       <c r="R12">
-        <v>115.558272293674</v>
+        <v>216.762461598441</v>
       </c>
       <c r="S12">
-        <v>0.0009471119726987757</v>
+        <v>0.0025020512985791</v>
       </c>
       <c r="T12">
-        <v>0.0009471119726987757</v>
+        <v>0.0025020512985791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H13">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>347.2260661617588</v>
+        <v>480.1503366388288</v>
       </c>
       <c r="R13">
-        <v>3125.034595455829</v>
+        <v>4321.353029749459</v>
       </c>
       <c r="S13">
-        <v>0.02561268545909298</v>
+        <v>0.04988062453236656</v>
       </c>
       <c r="T13">
-        <v>0.02561268545909298</v>
+        <v>0.04988062453236656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H14">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>0.8933190205944445</v>
+        <v>0.005985601182</v>
       </c>
       <c r="R14">
-        <v>8.03987118535</v>
+        <v>0.053870410638</v>
       </c>
       <c r="S14">
-        <v>6.589453188820074E-05</v>
+        <v>6.218167569138118E-07</v>
       </c>
       <c r="T14">
-        <v>6.589453188820072E-05</v>
+        <v>6.218167569138117E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H15">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.002903701621111111</v>
+        <v>0.003243419585999999</v>
       </c>
       <c r="R15">
-        <v>0.02613331459</v>
+        <v>0.029190776274</v>
       </c>
       <c r="S15">
-        <v>2.141878261349495E-07</v>
+        <v>3.369440406992451E-07</v>
       </c>
       <c r="T15">
-        <v>2.141878261349495E-07</v>
+        <v>3.369440406992451E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H16">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>0.07429678836222221</v>
+        <v>0.110242456434</v>
       </c>
       <c r="R16">
-        <v>0.6686710952599999</v>
+        <v>0.992182107906</v>
       </c>
       <c r="S16">
-        <v>5.480407309213628E-06</v>
+        <v>1.145258507034324E-05</v>
       </c>
       <c r="T16">
-        <v>5.480407309213628E-06</v>
+        <v>1.145258507034324E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H17">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>2.009203057078889</v>
+        <v>2.197781708166</v>
       </c>
       <c r="R17">
-        <v>18.08282751371</v>
+        <v>19.780035373494</v>
       </c>
       <c r="S17">
-        <v>0.0001482062867378049</v>
+        <v>0.0002283174993826843</v>
       </c>
       <c r="T17">
-        <v>0.0001482062867378049</v>
+        <v>0.0002283174993826843</v>
       </c>
     </row>
   </sheetData>
